--- a/src/test/java/testResources/TestData/TestData.xlsx
+++ b/src/test/java/testResources/TestData/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B52EBC-F1C6-47A0-A7E7-4C357E4E0A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD7E906-B2E0-43D2-8E96-C47F75555077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -288,13 +288,13 @@
     <t>ABCDEF</t>
   </si>
   <si>
-    <t>newtest1@gmail.com</t>
-  </si>
-  <si>
-    <t>newtest2@gmail.com</t>
-  </si>
-  <si>
-    <t>newtest3@gmail.com</t>
+    <t>newtest4@gmail.com</t>
+  </si>
+  <si>
+    <t>peca@gmail.com</t>
+  </si>
+  <si>
+    <t>pecahc@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
